--- a/Homework11/src/modelOutput.xlsx
+++ b/Homework11/src/modelOutput.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,7 +384,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.04655859584315708</v>
+        <v>0.02818010527880863</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.03947887064744639</v>
+        <v>0.1253482654869484</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.05107850762541018</v>
+        <v>0.03292383587576199</v>
       </c>
     </row>
     <row r="5">
@@ -419,11 +419,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Degree_ 10th</t>
+          <t>Native Country</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.640720896441154</v>
+        <v>0.2977179387410485</v>
       </c>
     </row>
     <row r="6">
@@ -432,11 +432,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Degree_ 11th</t>
+          <t>Martial-status_ Married-AF-spouse</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.778549904625254</v>
+        <v>0.08354297716660659</v>
       </c>
     </row>
     <row r="7">
@@ -445,11 +445,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Degree_ 12th</t>
+          <t>Martial-status_ Never-married</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.8455617960433083</v>
+        <v>-1.437481940962789</v>
       </c>
     </row>
     <row r="8">
@@ -458,11 +458,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Degree_ 1st-4th</t>
+          <t>Martial-status_ Separated</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.8131565737929963</v>
+        <v>-0.6891978547756051</v>
       </c>
     </row>
     <row r="9">
@@ -471,11 +471,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Degree_ 5th-6th</t>
+          <t>Martial-status_ Widowed</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.229916253676955</v>
+        <v>-0.6128377691303737</v>
       </c>
     </row>
     <row r="10">
@@ -484,11 +484,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Degree_ 7th-8th</t>
+          <t>Martial-status_Married</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.791794725297998</v>
+        <v>1.091215832516479</v>
       </c>
     </row>
     <row r="11">
@@ -497,11 +497,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Degree_ 9th</t>
+          <t>Martial-status_Separated</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.429714604528481</v>
+        <v>-0.8951457310253007</v>
       </c>
     </row>
     <row r="12">
@@ -510,11 +510,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Degree_ Assoc-acdm</t>
+          <t>Martial-status_Widowed</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.07748779238230089</v>
+        <v>-0.422559497314151</v>
       </c>
     </row>
     <row r="13">
@@ -523,11 +523,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Degree_ Assoc-voc</t>
+          <t>Race_ Amer-Indian-Eskimo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01005382877489957</v>
+        <v>-0.3791910922584866</v>
       </c>
     </row>
     <row r="14">
@@ -536,11 +536,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Degree_ Bachelors</t>
+          <t>Race_ Asian-Pac-Islander</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6719324071341665</v>
+        <v>-0.7098985184545816</v>
       </c>
     </row>
     <row r="15">
@@ -549,11 +549,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Degree_ Doctorate</t>
+          <t>Race_ Black</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.568484493738618</v>
+        <v>-0.7908309519505498</v>
       </c>
     </row>
     <row r="16">
@@ -562,11 +562,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Degree_ HS-grad</t>
+          <t>Race_ Other</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.5198374590612086</v>
+        <v>-0.420294777260817</v>
       </c>
     </row>
     <row r="17">
@@ -575,11 +575,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Degree_ Masters</t>
+          <t>Race_ White</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9057787581513955</v>
+        <v>-0.5822486436010661</v>
       </c>
     </row>
     <row r="18">
@@ -588,11 +588,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Degree_ Preschool</t>
+          <t>Sex_ Female</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.259250219622669</v>
+        <v>-1.614526702430178</v>
       </c>
     </row>
     <row r="19">
@@ -601,11 +601,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Degree_ Prof-school</t>
+          <t>Sex_ Male</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.827347965521005</v>
+        <v>-1.267937281095532</v>
       </c>
     </row>
     <row r="20">
@@ -614,11 +614,362 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>type-of-employment_Government</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.197133170258322</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>type-of-employment_Private</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.8205722201103478</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>type-of-employment_Self-Employed</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.189069634608492</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>occupation_Admins</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.2390818256589585</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>occupation_Craft</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.1693872787445065</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>occupation_Farming</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.184099558185469</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>occupation_Logistics</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.4538693724914365</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>occupation_Professionals</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3866823372601871</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>occupation_Sales</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03476023915367829</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>occupation_Security</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1953317658761235</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>occupation_Service</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.195704202963397</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>occupation_Technical</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2570960877715118</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Degree_ 10th</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.8228564730637404</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Degree_ 11th</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.9679825284159248</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Degree_ 12th</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.4272589963895894</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Degree_ 1st-4th</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.3257340136048488</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Degree_ 5th-6th</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.5409622826933291</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Degree_ 7th-8th</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.9789725050547241</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Degree_ 9th</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.7098367478500972</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Degree_ Assoc-acdm</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.1606731048273421</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Degree_ Assoc-voc</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1634939223682543</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Degree_ Bachelors</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3381719957711925</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Degree_ Doctorate</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7667151109330224</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Degree_ HS-grad</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.4262989092759146</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Degree_ Masters</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7735699438816718</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Degree_ Preschool</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.09860935721858376</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Degree_ Prof-school</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.038766460621553</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Degree_ Some-college</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>-0.2482928036430206</v>
+      <c r="C47" t="n">
+        <v>-0.1770086539712767</v>
       </c>
     </row>
   </sheetData>
